--- a/A7.1/breweryno.xlsx
+++ b/A7.1/breweryno.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emily/Documents/GitHub/ewp2111.github.io/A7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emily/Documents/GitHub/ewp2111.github.io/A7.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -823,11 +823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="953082960"/>
-        <c:axId val="953084832"/>
+        <c:axId val="1075640768"/>
+        <c:axId val="1023077088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="953082960"/>
+        <c:axId val="1075640768"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -870,7 +870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="953084832"/>
+        <c:crossAx val="1023077088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -878,7 +878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="953084832"/>
+        <c:axId val="1023077088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="953082960"/>
+        <c:crossAx val="1075640768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1172,41 +1172,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$15</c:f>
+              <c:f>Sheet1!$F$5:$F$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="2" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
                   <c:v>9.58821633E6</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="1">
                   <c:v>8.9131685E6</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="2">
                   <c:v>8.46948375E6</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="3">
                   <c:v>7.650992438E6</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="4">
                   <c:v>6.498326639E6</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="5">
                   <c:v>5.833761661E6</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="6">
                   <c:v>5.022046944E6</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="7">
                   <c:v>4.500784736E6</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="8">
                   <c:v>2.59822644E6</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="9">
                   <c:v>2.55171438E6</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="10">
                   <c:v>2.16473406E6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1296,41 +1296,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$15</c:f>
+              <c:f>Sheet1!$G$5:$G$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="2" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
                   <c:v>2.30903702E7</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="1">
                   <c:v>2.281462055E7</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="2">
                   <c:v>2.258144868E7</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="3">
                   <c:v>2.053436213E7</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="4">
                   <c:v>1.908114007E7</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="5">
                   <c:v>2.07975745E7</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="6">
                   <c:v>3.105783045E7</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="7">
                   <c:v>2.993875772E7</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="8">
                   <c:v>1.316776269E7</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="9">
                   <c:v>1.46957513E7</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="10">
                   <c:v>1.457012378E7</c:v>
                 </c:pt>
               </c:numCache>
@@ -1420,41 +1420,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$15</c:f>
+              <c:f>Sheet1!$H$5:$H$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="2" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
                   <c:v>1.72881332E7</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="1">
                   <c:v>2.645276543E7</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="2">
                   <c:v>2.393964817E7</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="3">
                   <c:v>2.515189532E7</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="4">
                   <c:v>1.339440941E7</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="5">
                   <c:v>1.1735116E7</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="6">
                   <c:v>1.7703591E7</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="7">
                   <c:v>1.54507691E7</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="8">
                   <c:v>9.97040428E6</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="9">
                   <c:v>6.082212525E7</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="10">
                   <c:v>1.300384185E7</c:v>
                 </c:pt>
               </c:numCache>
@@ -1544,41 +1544,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$15</c:f>
+              <c:f>Sheet1!$I$5:$I$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="2" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
                   <c:v>1.3561511747E8</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="1">
                   <c:v>1.3165935917E8</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="2">
                   <c:v>1.3612243744E8</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="3">
                   <c:v>1.3867788813E8</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="4">
                   <c:v>1.5302349863E8</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="5">
                   <c:v>1.5778075015E8</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="6">
                   <c:v>1.3896335384E8</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="7">
                   <c:v>1.607718607E8</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="8">
                   <c:v>1.7123288159E8</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="9">
                   <c:v>1.2163727533E8</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="10">
                   <c:v>1.675620854E8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1596,11 +1596,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="953412688"/>
-        <c:axId val="953415248"/>
+        <c:axId val="1053569632"/>
+        <c:axId val="1052856720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="953412688"/>
+        <c:axId val="1053569632"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1643,7 +1643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="953415248"/>
+        <c:crossAx val="1052856720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1651,7 +1651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="953415248"/>
+        <c:axId val="1052856720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1701,1222 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="953412688"/>
+        <c:crossAx val="1053569632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-HK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0212023491329575"/>
+          <c:y val="0.119847632468659"/>
+          <c:w val="0.931452586937016"/>
+          <c:h val="0.750836022331599"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M (60,000-2M Barrels)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L (2M-6M Barrels)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XL (&gt;6M Barrels)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1081055328"/>
+        <c:axId val="1081057104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1081055328"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081057104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1081057104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081055328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-HK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.58821633E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9131685E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.46948375E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.650992438E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.498326639E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.833761661E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.022046944E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.500784736E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.59822644E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.55171438E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.16473406E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.30903702E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.281462055E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.258144868E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.053436213E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.908114007E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.07975745E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.105783045E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.993875772E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.316776269E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.46957513E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.457012378E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.72881332E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.645276543E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.393964817E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.515189532E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.339440941E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1735116E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7703591E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.54507691E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.97040428E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.082212525E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.300384185E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1075587168"/>
+        <c:axId val="1075050432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1075587168"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075050432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1075050432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075587168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1862,6 +3077,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2366,6 +3661,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2925,6 +5226,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>660103</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>156830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295348</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>73837</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1125277</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>186365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>786569</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>150394</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3198,8 +5559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="76" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
